--- a/paper/TableDiffs.xlsx
+++ b/paper/TableDiffs.xlsx
@@ -530,134 +530,134 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MRMRe</t>
+          <t>Boruta</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.8606340412434594</v>
+        <v>0.8664050477069868</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.861 +/- 0.017</t>
+          <t>0.866 +/- 0.017</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.103</t>
+          <t>-0.108</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-0.1025546321945214</v>
+        <v>-0.1083256386580488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UPENN-GBM</t>
+          <t>Dong2022</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5638888888888888</v>
+        <v>0.7337669683257919</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.564 +/- 0.029</t>
+          <t>0.734 +/- 0.020</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.06630332864510075</v>
+        <v>-0.02132867132867133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.497585560243788</v>
+        <v>0.7124382969971206</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.498 +/- 0.025</t>
+          <t>0.712 +/- 0.021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>KernelPCA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bhattacharyya</t>
+          <t>Boruta</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.5845581340834505</v>
+        <v>0.8043577745783628</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.585 +/- 0.028</t>
+          <t>0.804 +/- 0.018</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.087</t>
+          <t>-0.092</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-0.08697257383966245</v>
+        <v>-0.09191947758124219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dong2022</t>
+          <t>UPENN-GBM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7337669683257919</v>
+        <v>0.5638888888888888</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.734 +/- 0.020</t>
+          <t>0.564 +/- 0.029</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.02132867132867133</v>
+        <v>-0.06630332864510075</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7124382969971206</v>
+        <v>0.497585560243788</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.712 +/- 0.021</t>
+          <t>0.498 +/- 0.025</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>KernelPCA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>Bhattacharyya</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.7939736733854381</v>
+        <v>0.5845581340834505</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.794 +/- 0.017</t>
+          <t>0.585 +/- 0.028</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-0.082</t>
+          <t>-0.087</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-0.08153537638831754</v>
+        <v>-0.08697257383966245</v>
       </c>
     </row>
     <row r="5">
@@ -695,24 +695,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Kendall</t>
+          <t>Boruta</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.8416924664602684</v>
+        <v>0.8440144478844169</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.842 +/- 0.022</t>
+          <t>0.844 +/- 0.016</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.074</t>
+          <t>-0.076</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-0.07364981080151356</v>
+        <v>-0.07597179222566208</v>
       </c>
     </row>
     <row r="6">
@@ -937,103 +937,103 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Huang2023</t>
+          <t>Deng2023</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9567234424025101</v>
+        <v>0.7986463243725316</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.957 +/- 0.007</t>
+          <t>0.799 +/- 0.017</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.05507844016136265</v>
+        <v>-0.01258759077589511</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9016450022411474</v>
+        <v>0.7860587335966365</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.902 +/- 0.020</t>
+          <t>0.786 +/- 0.019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MRMRe</t>
+          <t>RFE_LogReg</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.9589332138054685</v>
+        <v>0.8450535100012742</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.959 +/- 0.007</t>
+          <t>0.845 +/- 0.017</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.057</t>
+          <t>-0.059</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-0.05728821156432107</v>
+        <v>-0.05899477640463768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Deng2023</t>
+          <t>Huang2023</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7986463243725316</v>
+        <v>0.9567234424025101</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.799 +/- 0.017</t>
+          <t>0.957 +/- 0.007</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.01258759077589511</v>
+        <v>-0.05507844016136265</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7860587335966365</v>
+        <v>0.9016450022411474</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.786 +/- 0.019</t>
+          <t>0.902 +/- 0.020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>MRMRe</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.8433367307937317</v>
+        <v>0.9589332138054685</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.843 +/- 0.019</t>
+          <t>0.959 +/- 0.007</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-0.05727799719709525</v>
+        <v>-0.05728821156432107</v>
       </c>
     </row>
     <row r="12">
@@ -1063,19 +1063,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.02092969472710449</v>
+        <v>-0.01966350601295097</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6621530989824237</v>
+        <v>0.6634192876965772</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.662 +/- 0.029</t>
+          <t>0.663 +/- 0.039</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>NMF</t>
+          <t>MiniBatchDict</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1093,11 +1093,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-0.051</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-0.05132400555041639</v>
+        <v>-0.05005781683626287</v>
       </c>
     </row>
     <row r="13">
@@ -1118,41 +1118,41 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.02209756097560989</v>
+        <v>0.02487804878048783</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6125121951219513</v>
+        <v>0.6152926829268293</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.613 +/- 0.039</t>
+          <t>0.615 +/- 0.059</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>NMF</t>
+          <t>MiniBatchDict</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>LASSO</t>
+          <t>RFE_LogReg</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.6552439024390243</v>
+        <v>0.6601463414634147</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.655 +/- 0.068</t>
+          <t>0.660 +/- 0.055</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-0.043</t>
+          <t>-0.045</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-0.04273170731707299</v>
+        <v>-0.04485365853658541</v>
       </c>
     </row>
     <row r="14">
@@ -1597,213 +1597,213 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Granata2021</t>
+          <t>Wang2024</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5866372599896212</v>
+        <v>0.6531944444444443</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.587 +/- 0.028</t>
+          <t>0.653 +/- 0.033</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.04182667358588477</v>
+        <v>0.01601851851851865</v>
       </c>
       <c r="F22" t="n">
-        <v>0.628463933575506</v>
+        <v>0.669212962962963</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.628 +/- 0.065</t>
+          <t>0.669 +/- 0.051</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>UMAP</t>
+          <t>SRP</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>MRMRe</t>
+          <t>Boruta</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.6369745718733784</v>
+        <v>0.6789814814814814</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.637 +/- 0.035</t>
+          <t>0.679 +/- 0.046</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-0.009</t>
+          <t>-0.010</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-0.008510638297872353</v>
+        <v>-0.009768518518518454</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WORC-Desmoid</t>
+          <t>Granata2021</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.7930343511450382</v>
+        <v>0.5866372599896212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.793 +/- 0.021</t>
+          <t>0.587 +/- 0.028</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.005491942324003407</v>
+        <v>0.04182667358588477</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7985262934690416</v>
+        <v>0.628463933575506</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.799 +/- 0.034</t>
+          <t>0.628 +/- 0.065</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>UMAP</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>LASSO</t>
+          <t>MRMRe</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.8037266751484309</v>
+        <v>0.6369745718733784</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.804 +/- 0.020</t>
+          <t>0.637 +/- 0.035</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-0.005</t>
+          <t>-0.009</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-0.005200381679389299</v>
+        <v>-0.008510638297872353</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Head-Neck-Radiomics-HN1</t>
+          <t>WORC-Desmoid</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.7009383088869716</v>
+        <v>0.7930343511450382</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.701 +/- 0.034</t>
+          <t>0.793 +/- 0.021</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.03250647109577209</v>
+        <v>0.005491942324003407</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7334447799827437</v>
+        <v>0.7985262934690416</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.733 +/- 0.018</t>
+          <t>0.799 +/- 0.034</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SRP</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>tTest</t>
+          <t>LASSO</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.7366911130284729</v>
+        <v>0.8037266751484309</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.737 +/- 0.020</t>
+          <t>0.804 +/- 0.020</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-0.003</t>
+          <t>-0.005</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-0.003246333045729188</v>
+        <v>-0.005200381679389299</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hunter2023</t>
+          <t>Head-Neck-Radiomics-HN1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8170011621669945</v>
+        <v>0.7009383088869716</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.817 +/- 0.008</t>
+          <t>0.701 +/- 0.034</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.000297246558197628</v>
+        <v>0.03250647109577209</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8172984087251921</v>
+        <v>0.7334447799827437</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.817 +/- 0.008</t>
+          <t>0.733 +/- 0.018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>NMF</t>
+          <t>SRP</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>tTest</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.8201978663805949</v>
+        <v>0.7366911130284729</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.820 +/- 0.012</t>
+          <t>0.737 +/- 0.020</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1812,218 +1812,218 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-0.002899457655402782</v>
+        <v>-0.003246333045729188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Arita2018</t>
+          <t>Hunter2023</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7477477477477478</v>
+        <v>0.8170011621669945</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.748 +/- 0.029</t>
+          <t>0.817 +/- 0.008</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.007475896949581173</v>
+        <v>0.000297246558197628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7552236446973289</v>
+        <v>0.8172984087251921</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.755 +/- 0.025</t>
+          <t>0.817 +/- 0.008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>NMF</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.7576181444602497</v>
+        <v>0.8201978663805949</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.758 +/- 0.025</t>
+          <t>0.820 +/- 0.012</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0.002</t>
+          <t>-0.003</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-0.002394499762920721</v>
+        <v>-0.002899457655402782</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hosny2018A</t>
+          <t>Arita2018</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5648526236740824</v>
+        <v>0.7477477477477478</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.565 +/- 0.025</t>
+          <t>0.748 +/- 0.029</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.001107669201164008</v>
+        <v>0.007475896949581173</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5637449544729184</v>
+        <v>0.7552236446973289</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.564 +/- 0.025</t>
+          <t>0.755 +/- 0.025</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>NMF</t>
+          <t>PCA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>MRMRe</t>
+          <t>ET</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.5641274758284052</v>
+        <v>0.7576181444602497</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.564 +/- 0.029</t>
+          <t>0.758 +/- 0.025</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-0.000</t>
+          <t>-0.002</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-0.0003825213554867757</v>
+        <v>-0.002394499762920721</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>OcanaTienda2023</t>
+          <t>Hosny2018A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3988839285714286</v>
+        <v>0.5648526236740824</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.399 +/- 0.048</t>
+          <t>0.565 +/- 0.025</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.09620535714285722</v>
+        <v>-0.001107669201164008</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4950892857142858</v>
+        <v>0.5637449544729184</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.495 +/- 0.065</t>
+          <t>0.564 +/- 0.025</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>UMAP</t>
+          <t>NMF</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>MRMRe</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.4942410714285715</v>
+        <v>0.5641274758284052</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.494 +/- 0.078</t>
+          <t>0.564 +/- 0.029</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>-0.000</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>0.0008482142857142994</v>
+        <v>-0.0003825213554867757</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Zhang2024A</t>
+          <t>OcanaTienda2023</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6875705329153604</v>
+        <v>0.3988839285714286</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.688 +/- 0.014</t>
+          <t>0.399 +/- 0.048</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.02875548589341703</v>
+        <v>0.09620535714285722</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7163260188087774</v>
+        <v>0.4950892857142858</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.716 +/- 0.003</t>
+          <t>0.495 +/- 0.065</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SRP</t>
+          <t>UMAP</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Bhattacharyya</t>
+          <t>ET</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.7150721003134797</v>
+        <v>0.4942410714285715</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.715 +/- 0.016</t>
+          <t>0.494 +/- 0.078</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2032,53 +2032,53 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>0.001253918495297768</v>
+        <v>0.0008482142857142994</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WORC-GIST</t>
+          <t>Zhang2024A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7259697414022928</v>
+        <v>0.6875705329153604</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.726 +/- 0.011</t>
+          <t>0.688 +/- 0.014</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.0172653958944281</v>
+        <v>0.02875548589341703</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7087043455078647</v>
+        <v>0.7163260188087774</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.709 +/- 0.021</t>
+          <t>0.716 +/- 0.003</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>NMF</t>
+          <t>SRP</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>MRMRe</t>
+          <t>Bhattacharyya</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.707264729405492</v>
+        <v>0.7150721003134797</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.707 +/- 0.021</t>
+          <t>0.715 +/- 0.016</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2087,95 +2087,95 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>0.001439616102372643</v>
+        <v>0.001253918495297768</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ahn2021</t>
+          <t>WORC-GIST</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.7259697414022928</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.457 +/- 0.035</t>
+          <t>0.726 +/- 0.011</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.04971988795518206</v>
+        <v>-0.0172653958944281</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5068627450980392</v>
+        <v>0.7087043455078647</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.507 +/- 0.045</t>
+          <t>0.709 +/- 0.021</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>KernelPCA</t>
+          <t>NMF</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Kendall</t>
+          <t>MRMRe</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.503688141923436</v>
+        <v>0.707264729405492</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.504 +/- 0.039</t>
+          <t>0.707 +/- 0.021</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0.003174603174603163</v>
+        <v>0.001439616102372643</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lu2019</t>
+          <t>Ahn2021</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6185</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.619 +/- 0.039</t>
+          <t>0.457 +/- 0.035</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.05972727272727263</v>
+        <v>0.04971988795518206</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6782272727272727</v>
+        <v>0.5068627450980392</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.678 +/- 0.051</t>
+          <t>0.507 +/- 0.045</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>UMAP</t>
+          <t>KernelPCA</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2184,103 +2184,103 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.6703181818181818</v>
+        <v>0.503688141923436</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.670 +/- 0.056</t>
+          <t>0.504 +/- 0.039</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>0.007909090909090866</v>
+        <v>0.003174603174603163</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hosny2018B</t>
+          <t>Lu2019</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5834863945578233</v>
+        <v>0.6185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.583 +/- 0.037</t>
+          <t>0.619 +/- 0.039</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.07316326530612238</v>
+        <v>0.05972727272727263</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6566496598639456</v>
+        <v>0.6782272727272727</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.657 +/- 0.013</t>
+          <t>0.678 +/- 0.051</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SRP</t>
+          <t>UMAP</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>LASSO</t>
+          <t>Boruta</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.6456235827664399</v>
+        <v>0.6739545454545455</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.646 +/- 0.037</t>
+          <t>0.674 +/- 0.044</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>0.01102607709750569</v>
+        <v>0.004272727272727206</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Wang2024</t>
+          <t>ISPY1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6531944444444443</v>
+        <v>0.4762838689350977</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.653 +/- 0.033</t>
+          <t>0.476 +/- 0.018</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.01601851851851865</v>
+        <v>0.08255356017643345</v>
       </c>
       <c r="F34" t="n">
-        <v>0.669212962962963</v>
+        <v>0.5588374291115311</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.669 +/- 0.051</t>
+          <t>0.559 +/- 0.041</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2290,272 +2290,272 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>tTest</t>
+          <t>RFE_LogReg</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.6549074074074074</v>
+        <v>0.5486531190926277</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.655 +/- 0.056</t>
+          <t>0.549 +/- 0.022</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>0.01430555555555557</v>
+        <v>0.01018431001890341</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LNDb</t>
+          <t>Hosny2018B</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8122113943028486</v>
+        <v>0.5834863945578233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.812 +/- 0.023</t>
+          <t>0.583 +/- 0.037</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.00216641679160412</v>
+        <v>0.07316326530612238</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8143778110944527</v>
+        <v>0.6566496598639456</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.814 +/- 0.024</t>
+          <t>0.657 +/- 0.013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>NMF</t>
+          <t>SRP</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>LASSO</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.7974962518740629</v>
+        <v>0.6456235827664399</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.797 +/- 0.022</t>
+          <t>0.646 +/- 0.037</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>0.01688155922038981</v>
+        <v>0.01102607709750569</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Granata2024</t>
+          <t>LNDb</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.674493927125506</v>
+        <v>0.8122113943028486</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.674 +/- 0.075</t>
+          <t>0.812 +/- 0.023</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-0.02165991902834008</v>
+        <v>0.00216641679160412</v>
       </c>
       <c r="F36" t="n">
-        <v>0.652834008097166</v>
+        <v>0.8143778110944527</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.653 +/- 0.043</t>
+          <t>0.814 +/- 0.024</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>NMF</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>ET</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.6334008097165992</v>
+        <v>0.7974962518740629</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.633 +/- 0.079</t>
+          <t>0.797 +/- 0.022</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>0.01943319838056679</v>
+        <v>0.01688155922038981</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Colorectal-Liver-Metastases</t>
+          <t>HNSCC</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4930451127819548</v>
+        <v>0.6963529411764705</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.493 +/- 0.060</t>
+          <t>0.696 +/- 0.030</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1105263157894737</v>
+        <v>0.05773529411764711</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6035714285714285</v>
+        <v>0.7540882352941176</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.604 +/- 0.081</t>
+          <t>0.754 +/- 0.050</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>UMAP</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>tTest</t>
+          <t>RFE_LogReg</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.5786184210526315</v>
+        <v>0.7349705882352942</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.579 +/- 0.054</t>
+          <t>0.735 +/- 0.048</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>0.02495300751879703</v>
+        <v>0.01911764705882346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ISPY1</t>
+          <t>Granata2024</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4762838689350977</v>
+        <v>0.674493927125506</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.476 +/- 0.018</t>
+          <t>0.674 +/- 0.075</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.08255356017643345</v>
+        <v>-0.02165991902834008</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5588374291115311</v>
+        <v>0.652834008097166</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.559 +/- 0.041</t>
+          <t>0.653 +/- 0.043</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SRP</t>
+          <t>PCA</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>LASSO</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.5315768746061751</v>
+        <v>0.6334008097165992</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.532 +/- 0.026</t>
+          <t>0.633 +/- 0.079</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>0.02726055450535603</v>
+        <v>0.01943319838056679</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C4KC-KiTS</t>
+          <t>Colorectal-Liver-Metastases</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5528079710144927</v>
+        <v>0.4930451127819548</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.553 +/- 0.047</t>
+          <t>0.493 +/- 0.060</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.04415760869565222</v>
+        <v>0.1105263157894737</v>
       </c>
       <c r="F39" t="n">
-        <v>0.596965579710145</v>
+        <v>0.6035714285714285</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.597 +/- 0.049</t>
+          <t>0.604 +/- 0.081</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2565,57 +2565,57 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>LASSO</t>
+          <t>tTest</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0.5685688405797102</v>
+        <v>0.5786184210526315</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.569 +/- 0.036</t>
+          <t>0.579 +/- 0.054</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>0.02839673913043472</v>
+        <v>0.02495300751879703</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HNSCC</t>
+          <t>C4KC-KiTS</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.6963529411764705</v>
+        <v>0.5528079710144927</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.696 +/- 0.030</t>
+          <t>0.553 +/- 0.047</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.05773529411764711</v>
+        <v>0.04415760869565222</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7540882352941176</v>
+        <v>0.596965579710145</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.754 +/- 0.050</t>
+          <t>0.597 +/- 0.049</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>UMAP</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2624,20 +2624,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0.7232647058823529</v>
+        <v>0.5685688405797102</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.723 +/- 0.047</t>
+          <t>0.569 +/- 0.036</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>0.03082352941176469</v>
+        <v>0.02839673913043472</v>
       </c>
     </row>
     <row r="41">
@@ -2972,250 +2972,250 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hosny2018C</t>
+          <t>Brancato2023</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.611218045112782</v>
+        <v>0.7218633540372671</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.611 +/- 0.029</t>
+          <t>0.722 +/- 0.021</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-0.04368421052631599</v>
+        <v>0.04093167701863354</v>
       </c>
       <c r="F47" t="n">
-        <v>0.567533834586466</v>
+        <v>0.7627950310559006</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.568 +/- 0.038</t>
+          <t>0.763 +/- 0.038</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>TruncatedSVD</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Bhattacharyya</t>
+          <t>Boruta</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0.5165864661654135</v>
+        <v>0.7181366459627329</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.517 +/- 0.033</t>
+          <t>0.718 +/- 0.036</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>0.05094736842105252</v>
+        <v>0.04465838509316777</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HCC-TACE-Seg</t>
+          <t>Hosny2018C</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.521412037037037</v>
+        <v>0.611218045112782</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.521 +/- 0.034</t>
+          <t>0.611 +/- 0.029</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.03009259259259256</v>
+        <v>-0.04368421052631599</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5515046296296295</v>
+        <v>0.567533834586466</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.552 +/- 0.079</t>
+          <t>0.568 +/- 0.038</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>tTest</t>
+          <t>Bhattacharyya</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.4945023148148148</v>
+        <v>0.5165864661654135</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.495 +/- 0.062</t>
+          <t>0.517 +/- 0.033</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.057</t>
+          <t>0.051</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>0.05700231481481477</v>
+        <v>0.05094736842105252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Brancato2023</t>
+          <t>WORC-Melanoma</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.7218633540372671</v>
+        <v>0.5205895390070922</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.722 +/- 0.021</t>
+          <t>0.521 +/- 0.060</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.04031055900621106</v>
+        <v>0.03566046099290787</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7621739130434781</v>
+        <v>0.55625</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.762 +/- 0.037</t>
+          <t>0.556 +/- 0.036</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>NMF</t>
+          <t>KernelPCA</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>RFE_LogReg</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0.7013043478260869</v>
+        <v>0.5043661347517731</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.701 +/- 0.050</t>
+          <t>0.504 +/- 0.040</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>0.06086956521739129</v>
+        <v>0.05188386524822697</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Zhang2023</t>
+          <t>HCC-TACE-Seg</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.5826243201243202</v>
+        <v>0.521412037037037</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.583 +/- 0.013</t>
+          <t>0.521 +/- 0.034</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.06894910644910635</v>
+        <v>0.03009259259259256</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6515734265734265</v>
+        <v>0.5515046296296295</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.652 +/- 0.018</t>
+          <t>0.552 +/- 0.079</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>KernelPCA</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Bhattacharyya</t>
+          <t>tTest</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.5901223776223776</v>
+        <v>0.4945023148148148</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.590 +/- 0.024</t>
+          <t>0.495 +/- 0.062</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.057</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>0.06145104895104891</v>
+        <v>0.05700231481481477</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WORC-Melanoma</t>
+          <t>Zhang2023</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.5205895390070922</v>
+        <v>0.5826243201243202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.521 +/- 0.060</t>
+          <t>0.583 +/- 0.013</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.03566046099290787</v>
+        <v>0.06894910644910635</v>
       </c>
       <c r="F51" t="n">
-        <v>0.55625</v>
+        <v>0.6515734265734265</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.556 +/- 0.036</t>
+          <t>0.652 +/- 0.018</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3225,24 +3225,24 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>LASSO</t>
+          <t>Bhattacharyya</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.4918439716312057</v>
+        <v>0.5901223776223776</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.492 +/- 0.057</t>
+          <t>0.590 +/- 0.024</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>0.06440602836879433</v>
+        <v>0.06145104895104891</v>
       </c>
     </row>
   </sheetData>
